--- a/res/test/fruit.xlsx
+++ b/res/test/fruit.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t/>
   </si>
@@ -47,18 +47,27 @@
     <t>quả đu đủ</t>
   </si>
   <si>
+    <t>papaya.png</t>
+  </si>
+  <si>
     <t>kiwi</t>
   </si>
   <si>
     <t>quả kiwi</t>
   </si>
   <si>
+    <t>kiwi.png</t>
+  </si>
+  <si>
     <t>blueberry</t>
   </si>
   <si>
     <t>quả việt quất</t>
   </si>
   <si>
+    <t>Blueberry.png</t>
+  </si>
+  <si>
     <t>lime</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
     <t>quả đào</t>
   </si>
   <si>
+    <t>peach.png</t>
+  </si>
+  <si>
     <t>grape</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>quả xoài</t>
   </si>
   <si>
+    <t>mango.jpg</t>
+  </si>
+  <si>
     <t>coconut</t>
   </si>
   <si>
@@ -113,6 +128,9 @@
     <t>quả cam</t>
   </si>
   <si>
+    <t>orange.png</t>
+  </si>
+  <si>
     <t>apple</t>
   </si>
   <si>
@@ -128,6 +146,9 @@
     <t>quả vải</t>
   </si>
   <si>
+    <t>Lychee.jpg</t>
+  </si>
+  <si>
     <t>lemon</t>
   </si>
   <si>
@@ -137,22 +158,22 @@
     <t>lemon.png</t>
   </si>
   <si>
-    <t>fly</t>
-  </si>
-  <si>
-    <t>hugh??</t>
-  </si>
-  <si>
     <t>pineapple</t>
   </si>
   <si>
     <t>quả dứa</t>
   </si>
   <si>
+    <t>pineapple.jpeg</t>
+  </si>
+  <si>
     <t>watermelon</t>
   </si>
   <si>
     <t>quả dưa hấu</t>
+  </si>
+  <si>
+    <t>watermelon.jpg</t>
   </si>
 </sst>
 </file>
@@ -208,7 +229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -257,199 +278,205 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="true">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="true">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="true">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="true">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="true">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="true">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="true">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="true">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="true">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="true">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" s="2" customFormat="true">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="true">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="true">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18"/>
-    </row>
-    <row r="19" s="2" customFormat="true">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19"/>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
